--- a/StructureDefinition-ext-R5-Availability.xlsx
+++ b/StructureDefinition-ext-R5-Availability.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-Availability.xlsx
+++ b/StructureDefinition-ext-R5-Availability.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="211">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -412,6 +412,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.daysOfWeek</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -468,6 +471,9 @@
     <t>Extension.extension:availableTime.extension:allDay.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.allDay</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:allDay.value[x]</t>
   </si>
   <si>
@@ -502,6 +508,9 @@
     <t>Extension.extension:availableTime.extension:availableStartTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.availableStartTime</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:availableStartTime.value[x]</t>
   </si>
   <si>
@@ -533,6 +542,9 @@
     <t>Extension.extension:availableTime.extension:availableEndTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.availableEndTime</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:availableEndTime.value[x]</t>
   </si>
   <si>
@@ -610,6 +622,9 @@
     <t>Extension.extension:notAvailableTime.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.notAvailableTime.description</t>
+  </si>
+  <si>
     <t>Extension.extension:notAvailableTime.extension:description.value[x]</t>
   </si>
   <si>
@@ -635,6 +650,9 @@
   </si>
   <si>
     <t>Extension.extension:notAvailableTime.extension:during.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.notAvailableTime.during</t>
   </si>
   <si>
     <t>Extension.extension:notAvailableTime.extension:during.value[x]</t>
@@ -2109,7 +2127,7 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="S11" t="s" s="2">
         <v>77</v>
@@ -2151,7 +2169,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>86</v>
@@ -2166,15 +2184,15 @@
         <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2197,7 +2215,7 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>110</v>
@@ -2230,13 +2248,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -2254,7 +2272,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2266,21 +2284,21 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2305,14 +2323,14 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2381,7 +2399,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>114</v>
@@ -2484,7 +2502,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>116</v>
@@ -2589,7 +2607,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>122</v>
@@ -2632,7 +2650,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2674,7 +2692,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>86</v>
@@ -2689,15 +2707,15 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2720,13 +2738,13 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2777,7 +2795,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2789,21 +2807,21 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2828,16 +2846,16 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2906,7 +2924,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>114</v>
@@ -3009,7 +3027,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>116</v>
@@ -3114,7 +3132,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>122</v>
@@ -3157,7 +3175,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3199,7 +3217,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3214,15 +3232,15 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3245,16 +3263,16 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3304,7 +3322,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3316,21 +3334,21 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3355,16 +3373,16 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3433,7 +3451,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>114</v>
@@ -3536,7 +3554,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>116</v>
@@ -3641,7 +3659,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>122</v>
@@ -3684,7 +3702,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3726,7 +3744,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -3741,15 +3759,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3772,16 +3790,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3831,7 +3849,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3843,18 +3861,18 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3894,7 +3912,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3936,7 +3954,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -3951,15 +3969,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3982,13 +4000,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4039,7 +4057,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4051,21 +4069,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4090,14 +4108,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4166,7 +4184,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4269,7 +4287,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4372,13 +4390,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4403,16 +4421,16 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4481,7 +4499,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>114</v>
@@ -4584,7 +4602,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>116</v>
@@ -4689,7 +4707,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>122</v>
@@ -4732,7 +4750,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4774,7 +4792,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -4789,15 +4807,15 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4823,13 +4841,13 @@
         <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -4879,7 +4897,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -4891,21 +4909,21 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4930,14 +4948,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5006,7 +5024,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>114</v>
@@ -5109,7 +5127,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>116</v>
@@ -5214,7 +5232,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>122</v>
@@ -5257,7 +5275,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5299,7 +5317,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>86</v>
@@ -5314,15 +5332,15 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5345,13 +5363,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5402,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5414,18 +5432,18 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5465,7 +5483,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5507,7 +5525,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -5522,15 +5540,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5553,13 +5571,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5610,7 +5628,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -5622,18 +5640,18 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5715,7 +5733,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
@@ -5730,15 +5748,15 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5761,13 +5779,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5818,7 +5836,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -5830,10 +5848,10 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Availability.xlsx
+++ b/StructureDefinition-ext-R5-Availability.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="208">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -429,15 +429,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-days-of-week-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -1018,8 +1009,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.17578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2248,43 +2239,43 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>129</v>
@@ -2292,13 +2283,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2323,14 +2314,14 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2399,7 +2390,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>114</v>
@@ -2502,7 +2493,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>116</v>
@@ -2607,7 +2598,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>122</v>
@@ -2650,7 +2641,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2712,7 +2703,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>131</v>
@@ -2738,13 +2729,13 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2795,7 +2786,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2807,7 +2798,7 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>129</v>
@@ -2815,13 +2806,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2846,16 +2837,16 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2924,7 +2915,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>114</v>
@@ -3027,7 +3018,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>116</v>
@@ -3132,7 +3123,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>122</v>
@@ -3175,7 +3166,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3237,7 +3228,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>131</v>
@@ -3263,16 +3254,16 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3322,7 +3313,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3334,7 +3325,7 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>129</v>
@@ -3342,13 +3333,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3373,16 +3364,16 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3451,7 +3442,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>114</v>
@@ -3554,7 +3545,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>116</v>
@@ -3659,7 +3650,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>122</v>
@@ -3702,7 +3693,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3764,7 +3755,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>131</v>
@@ -3790,16 +3781,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3849,7 +3840,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3861,7 +3852,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>129</v>
@@ -3869,10 +3860,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3912,7 +3903,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3974,10 +3965,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4000,13 +3991,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4057,7 +4048,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4069,7 +4060,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>129</v>
@@ -4077,13 +4068,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4108,14 +4099,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4184,7 +4175,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4287,7 +4278,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4390,13 +4381,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4421,16 +4412,16 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4499,7 +4490,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>114</v>
@@ -4602,7 +4593,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>116</v>
@@ -4707,7 +4698,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>122</v>
@@ -4750,7 +4741,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4812,7 +4803,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>131</v>
@@ -4841,13 +4832,13 @@
         <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -4897,7 +4888,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -4909,7 +4900,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>129</v>
@@ -4917,13 +4908,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4948,14 +4939,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5024,7 +5015,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>114</v>
@@ -5127,7 +5118,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>116</v>
@@ -5232,7 +5223,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>122</v>
@@ -5275,7 +5266,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5337,7 +5328,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>131</v>
@@ -5363,13 +5354,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5420,7 +5411,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5432,7 +5423,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>129</v>
@@ -5440,10 +5431,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5483,7 +5474,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5545,10 +5536,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5571,13 +5562,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5628,7 +5619,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -5640,7 +5631,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>129</v>
@@ -5753,10 +5744,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5779,13 +5770,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5836,7 +5827,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -5848,7 +5839,7 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>129</v>

--- a/StructureDefinition-ext-R5-Availability.xlsx
+++ b/StructureDefinition-ext-R5-Availability.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="211">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -429,6 +429,15 @@
   <si>
     <t xml:space="preserve">code
 </t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -1009,8 +1018,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.84375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2239,13 +2248,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -2263,7 +2272,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2275,7 +2284,7 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>129</v>
@@ -2283,13 +2292,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2314,14 +2323,14 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2390,7 +2399,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>114</v>
@@ -2493,7 +2502,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>116</v>
@@ -2598,7 +2607,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>122</v>
@@ -2641,7 +2650,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2703,7 +2712,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>131</v>
@@ -2729,13 +2738,13 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2786,7 +2795,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2798,7 +2807,7 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>129</v>
@@ -2806,13 +2815,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2837,16 +2846,16 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2915,7 +2924,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>114</v>
@@ -3018,7 +3027,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>116</v>
@@ -3123,7 +3132,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>122</v>
@@ -3166,7 +3175,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3228,7 +3237,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>131</v>
@@ -3254,16 +3263,16 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3313,7 +3322,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3325,7 +3334,7 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>129</v>
@@ -3333,13 +3342,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3364,16 +3373,16 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3442,7 +3451,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>114</v>
@@ -3545,7 +3554,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>116</v>
@@ -3650,7 +3659,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>122</v>
@@ -3693,7 +3702,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3755,7 +3764,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>131</v>
@@ -3781,16 +3790,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3840,7 +3849,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3852,7 +3861,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>129</v>
@@ -3860,10 +3869,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3903,7 +3912,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3965,10 +3974,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3991,13 +4000,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4048,7 +4057,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4060,7 +4069,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>129</v>
@@ -4068,13 +4077,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4099,14 +4108,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4175,7 +4184,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4278,7 +4287,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4381,13 +4390,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4412,16 +4421,16 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4490,7 +4499,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>114</v>
@@ -4593,7 +4602,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>116</v>
@@ -4698,7 +4707,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>122</v>
@@ -4741,7 +4750,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4803,7 +4812,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>131</v>
@@ -4832,13 +4841,13 @@
         <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -4888,7 +4897,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -4900,7 +4909,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>129</v>
@@ -4908,13 +4917,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4939,14 +4948,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5015,7 +5024,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>114</v>
@@ -5118,7 +5127,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>116</v>
@@ -5223,7 +5232,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>122</v>
@@ -5266,7 +5275,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5328,7 +5337,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>131</v>
@@ -5354,13 +5363,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5411,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5423,7 +5432,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>129</v>
@@ -5431,10 +5440,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5474,7 +5483,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5536,10 +5545,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5562,13 +5571,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5619,7 +5628,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -5631,7 +5640,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>129</v>
@@ -5744,10 +5753,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5770,13 +5779,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5827,7 +5836,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -5839,7 +5848,7 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>129</v>
